--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV034-001 - Setup Broker Investasi - General Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV034-001 - Setup Broker Investasi - General Ubah Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16206D-C617-49A2-8A25-12B153065E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9744CCF-0BB7-45E9-AACA-094D2F17E549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
